--- a/Deliverables/P2/1 - User Stories and Tasks.xlsx
+++ b/Deliverables/P2/1 - User Stories and Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\OICE_16_974FA576_32C1D314_4F0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{37A576F0-B0F6-4062-B914-E17F3FE254C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1F2E8D6F-6630-4C55-A70B-BDEBD29D0950}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F3EF444-FEE0-45D1-9EDF-245F7B134DEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,8 @@
     <t>-Once unregistered, user can't login
 -User won't show up in searches anymore
 -Can't be invited to a match
--All open games will be forfeited&lt;/div&gt;&lt;div&gt;-Other players can't view their profile</t>
+-All open games will be forfeited
+-Other players can't view their profile</t>
   </si>
   <si>
     <t xml:space="preserve">As a player, I would like to create a new match </t>
@@ -1167,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1256,7 +1257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="60">
+    <row r="5" spans="1:6" ht="75">
       <c r="A5">
         <v>7</v>
       </c>
